--- a/data/trans_bre/P7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-1,72%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,58%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,92%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,95</t>
+          <t>-4,62; 1,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,01</t>
+          <t>-6,06; 0,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -0,98</t>
+          <t>-6,24; -0,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 0,31</t>
+          <t>-6,19; 0,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,64</t>
+          <t>-8,1; -0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,19</t>
+          <t>-7,37; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,06</t>
+          <t>-4,57; 1,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,06</t>
+          <t>-4,96; 1,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,33</t>
+          <t>-6,48; 0,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,78</t>
+          <t>-6,61; -0,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 0,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; -0,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 0,48</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 2,15</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-2,95</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-0,16%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,93</t>
+          <t>-3,47; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,61</t>
+          <t>-4,47; 2,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,79</t>
+          <t>-2,15; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,72</t>
+          <t>-3,06; 3,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 2,17</t>
+          <t>-4,27; 6,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,17</t>
+          <t>-10,25; 1,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,88</t>
+          <t>-6,96; 5,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,34</t>
+          <t>-3,65; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,18</t>
+          <t>-4,71; 2,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 2,26</t>
+          <t>-2,3; 5,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 4,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 7,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,71; 2,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 6,02</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>4,57%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,5</t>
+          <t>-0,98; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,35</t>
+          <t>-1,6; 8,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,79</t>
+          <t>-3,93; 8,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 6,76</t>
+          <t>-6,36; 7,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,41; 8,88</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 11,79</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 10,26</t>
+          <t>-1,0; 11,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 7,72</t>
+          <t>-1,64; 9,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 9,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 8,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 10,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-0,41%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>-1,42%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,64</t>
+          <t>-2,48; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,02</t>
+          <t>-3,43; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,14</t>
+          <t>-3,15; 1,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,85</t>
+          <t>-3,47; 1,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,03</t>
+          <t>-4,59; 1,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,8</t>
+          <t>-6,6; 0,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,11</t>
+          <t>-4,06; 1,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,21</t>
+          <t>-2,66; 1,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,95</t>
+          <t>-3,67; 1,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,03</t>
+          <t>-3,41; 1,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 1,23</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 0,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 2,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-3,62%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-4,64%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-3,45%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.577522763024697</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.016557154000265</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.285312630785564</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.99028244724735</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-4.114645702735887</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-3.115660665359932</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-1.227501832309852</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.01717523984862905</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.02180505014247914</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03540861649534498</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.03267982111791993</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.04418779011197822</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.03449345978596172</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.01371874856905298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 1,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 0,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; -0,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 0,17</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; -0,36</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 0,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 1,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 1,59</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 0,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; -0,07</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 0,18</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; -0,47</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 0,48</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 2,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.615586178061108</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.451174286268006</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.23031351913151</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.107452568108881</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.900105474613432</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-7.370812518576041</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-4.577777404073946</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.04961106557519952</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0585949179718774</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06603307796008441</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.06625275040077397</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.08319048624494658</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.07970926928695043</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.05014928268300728</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.446193128963847</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9769688270514363</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.04491524412343768</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.4346396463768806</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1011615529547664</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4161038482121833</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.957182728899873</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.01585991197184361</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.01067567377551471</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.0004681966208881783</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.004741855108164085</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.001108175327874738</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.0047953040940388</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.02199029037536265</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-1,23%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-3,15%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 2,86</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 2,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 5,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 3,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 6,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,25; 1,97</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 5,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,65; 3,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 2,67</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 5,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 4,13</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 7,66</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 2,09</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 6,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.152148533895291</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.8054830994738582</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.229284811802966</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5517996012451842</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7950396638660262</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.948003974681523</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.3315279348750533</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.001626430971359204</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.008650556792233623</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01345892932299132</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.006017414135641263</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.008861149426288465</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.03149227921650543</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.003727265048327196</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.4739385321338</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.291642038974521</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.120050300280198</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.010901040639896</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.025061414330694</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-10.24932438953311</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-6.977022370335328</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03652282473750721</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.04520632480471241</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.02266676642697594</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.03225551756643995</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.04306880524773678</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.1071059015663173</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.07616168731498579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 9,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 8,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 8,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 7,27</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 8,88</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 11,15</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 9,7</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 9,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 8,31</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 10,32</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.856827971626279</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.118016705852306</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.36530633805471</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.897044379476433</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.528343562676787</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.971268675596709</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>5.299597975282527</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03104441482921028</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.03431778291899731</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.05984503465124517</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0431805991637259</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.07649098628888004</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.02094474008018153</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.06141849401300132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,85</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,01%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-1,47%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-3,47%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-1,19%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.207610054713173</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.862857062320867</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.742047741426878</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6602073302648725</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.271818876308616</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.04574923292361789</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03042639156994906</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.03038913940084305</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.007327437157718719</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.002993227077530884</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 1,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 1,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 1,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 1,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 1,14</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 0,15</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 1,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 1,95</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 1,16</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 1,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 1,1</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 1,23</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 0,15</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 2,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9769825409853877</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.508996244102963</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.704750353732123</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.245005475253416</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.381694755666077</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.01002455396687139</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.01546649870933151</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.03984310984038534</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.06788103288547474</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.09894055281514456</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.782412138600211</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.128760112413961</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.605835185175293</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.256294727504645</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.185108386963849</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.1115273456236843</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.09040704470802634</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1001269664966778</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.08362187111687795</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.106329017589063</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.382724383861488</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.016408607319663</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.8302862819004386</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.210184025885197</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.646734652060078</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.157340565608802</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-1.018418698857793</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.004135478426529659</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.01093723850907323</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.009035743769843202</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01323911072518713</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.01800296285074457</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.03465259390367041</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.01139834041744998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.484748721376786</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.227300420109302</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.036636469479242</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.375068929218503</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.461469898192795</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.595698187586498</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-4.058381410544664</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02656798332419576</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.03430401620040221</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03284613128687541</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.03628708311767009</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.04805769452501561</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.07184188187425389</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.04452811109873452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.784322320276836</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.312809398437417</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.350713671203538</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.174730099757413</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.263572110238155</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.149125687930838</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.837550013814607</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.01954989390697567</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.01435328825303302</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.01490874132442329</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.01300250053645775</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.01382610554874411</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.001494623936886247</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.02079793353142028</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
